--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value797.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value797.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.073020406360258</v>
+        <v>1.399968028068542</v>
       </c>
       <c r="B1">
-        <v>3.168693081768581</v>
+        <v>2.075355291366577</v>
       </c>
       <c r="C1">
-        <v>2.649399349339734</v>
+        <v>3.923242092132568</v>
       </c>
       <c r="D1">
-        <v>2.267559741378135</v>
+        <v>1.138980507850647</v>
       </c>
       <c r="E1">
-        <v>1.606794059372333</v>
+        <v>0.6781141757965088</v>
       </c>
     </row>
   </sheetData>
